--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.911257666666666</v>
+        <v>2.311181333333333</v>
       </c>
       <c r="H2">
-        <v>11.733773</v>
+        <v>6.933544</v>
       </c>
       <c r="I2">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="J2">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N2">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q2">
-        <v>135.0186615448455</v>
+        <v>42.60967786896622</v>
       </c>
       <c r="R2">
-        <v>1215.16795390361</v>
+        <v>383.487100820696</v>
       </c>
       <c r="S2">
-        <v>0.3162367629644274</v>
+        <v>0.2028703745411677</v>
       </c>
       <c r="T2">
-        <v>0.3162367629644274</v>
+        <v>0.2028703745411677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.911257666666666</v>
+        <v>2.311181333333333</v>
       </c>
       <c r="H3">
-        <v>11.733773</v>
+        <v>6.933544</v>
       </c>
       <c r="I3">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="J3">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.042855</v>
       </c>
       <c r="O3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q3">
-        <v>20.91591320465722</v>
+        <v>12.35931566979111</v>
       </c>
       <c r="R3">
-        <v>188.243218841915</v>
+        <v>111.23384102812</v>
       </c>
       <c r="S3">
-        <v>0.04898864061164464</v>
+        <v>0.05884435471945232</v>
       </c>
       <c r="T3">
-        <v>0.04898864061164464</v>
+        <v>0.05884435471945232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.911257666666666</v>
+        <v>2.311181333333333</v>
       </c>
       <c r="H4">
-        <v>11.733773</v>
+        <v>6.933544</v>
       </c>
       <c r="I4">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="J4">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N4">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q4">
-        <v>19.77180384577689</v>
+        <v>15.63873560697333</v>
       </c>
       <c r="R4">
-        <v>177.946234611992</v>
+        <v>140.74862046276</v>
       </c>
       <c r="S4">
-        <v>0.04630894110944324</v>
+        <v>0.07445811159834399</v>
       </c>
       <c r="T4">
-        <v>0.04630894110944324</v>
+        <v>0.07445811159834401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>12.300544</v>
       </c>
       <c r="I5">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J5">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N5">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q5">
-        <v>141.5404053882311</v>
+        <v>75.59225375263289</v>
       </c>
       <c r="R5">
-        <v>1273.86364849408</v>
+        <v>680.330283773696</v>
       </c>
       <c r="S5">
-        <v>0.3315118007874799</v>
+        <v>0.3599048290946323</v>
       </c>
       <c r="T5">
-        <v>0.3315118007874799</v>
+        <v>0.3599048290946322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.300544</v>
       </c>
       <c r="I6">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J6">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.042855</v>
       </c>
       <c r="O6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q6">
         <v>21.92620486812444</v>
@@ -818,10 +818,10 @@
         <v>197.33584381312</v>
       </c>
       <c r="S6">
-        <v>0.05135491621865549</v>
+        <v>0.1043935935761323</v>
       </c>
       <c r="T6">
-        <v>0.05135491621865549</v>
+        <v>0.1043935935761323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.300544</v>
       </c>
       <c r="I7">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J7">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N7">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q7">
-        <v>20.72683212504178</v>
+        <v>27.74410250197333</v>
       </c>
       <c r="R7">
-        <v>186.541489125376</v>
+        <v>249.69692251776</v>
       </c>
       <c r="S7">
-        <v>0.04854578043312372</v>
+        <v>0.132093382240358</v>
       </c>
       <c r="T7">
-        <v>0.04854578043312372</v>
+        <v>0.132093382240358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H8">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I8">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J8">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N8">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q8">
-        <v>51.52694408508889</v>
+        <v>8.547385069461113</v>
       </c>
       <c r="R8">
-        <v>463.7424967658</v>
+        <v>76.92646562515002</v>
       </c>
       <c r="S8">
-        <v>0.1206849024903523</v>
+        <v>0.04069524336047815</v>
       </c>
       <c r="T8">
-        <v>0.1206849024903523</v>
+        <v>0.04069524336047815</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H9">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I9">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J9">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.042855</v>
       </c>
       <c r="O9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q9">
-        <v>7.982104679855555</v>
+        <v>2.479244986305556</v>
       </c>
       <c r="R9">
-        <v>71.8389421187</v>
+        <v>22.31320487675</v>
       </c>
       <c r="S9">
-        <v>0.01869545229318038</v>
+        <v>0.0118040169300938</v>
       </c>
       <c r="T9">
-        <v>0.01869545229318038</v>
+        <v>0.0118040169300938</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H10">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I10">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J10">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N10">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q10">
-        <v>7.545480154862223</v>
+        <v>3.137087673916667</v>
       </c>
       <c r="R10">
-        <v>67.90932139376001</v>
+        <v>28.23378906525</v>
       </c>
       <c r="S10">
-        <v>0.0176728030916927</v>
+        <v>0.01493609393934138</v>
       </c>
       <c r="T10">
-        <v>0.0176728030916927</v>
+        <v>0.01493609393934138</v>
       </c>
     </row>
   </sheetData>
